--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -1,100 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B326955-CF86-4669-8128-11114954E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="7290" windowWidth="23490" windowHeight="13785" xr2:uid="{D756AC09-5A7A-451F-9C2F-C08626182583}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実績</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample1.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample2.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample3.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S1\sample1.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,32 +54,108 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:D4" headerRowCount="1">
+  <autoFilter ref="A1:D4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ファイル名"/>
+    <tableColumn id="2" name="環境名"/>
+    <tableColumn id="3" name="日付"/>
+    <tableColumn id="4" name="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,154 +454,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDEF36B-B9BE-4F34-B996-0EBBFE4CE695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B3:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="9.375" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+    <row r="3">
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>45686</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3" t="n">
         <v>45687</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3" t="n">
         <v>45688</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3" t="n">
         <v>45689</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3" t="n">
         <v>45690</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3" t="n">
         <v>45691</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3" t="n">
         <v>45694</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3" t="n">
         <v>45695</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3" t="n">
         <v>45696</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3" t="n">
         <v>45697</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3" t="n">
         <v>45699</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3" t="n">
         <v>45700</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3" t="n">
         <v>45701</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="3" t="n">
         <v>45702</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="3" t="n">
         <v>45703</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="3" t="n">
         <v>45704</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="3" t="n">
         <v>45705</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H22" t="s">
-        <v>6</v>
+    <row r="11">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>予定</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>実績</t>
+        </is>
+      </c>
+      <c r="I12" s="0">
+        <f>SUM(DATA[Total])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>チケット</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>予定</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>実績</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>チケット</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>sample3.xlsx</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>予定</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>実績</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>チケット</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>S1\sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>予定</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>実績</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>チケット</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ファイル名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>環境名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>環境a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>環境a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>環境b</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -152,9 +152,9 @@
     <tableColumn id="1" name="ファイル名"/>
     <tableColumn id="2" name="環境名"/>
     <tableColumn id="3" name="日付"/>
-    <tableColumn id="4" name="Total"/>
+    <tableColumn id="4" name="Completed"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -682,7 +682,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7410" yWindow="23655" windowWidth="23490" windowHeight="13785" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -146,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:D4" headerRowCount="1">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:D5" headerRowCount="1">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ファイル名"/>
     <tableColumn id="2" name="環境名"/>
@@ -462,7 +462,7 @@
   <dimension ref="B3:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="I12" s="0">
-        <f>SUM(DATA[Total])</f>
+        <f>SUM(DATA[Completed])</f>
         <v/>
       </c>
     </row>
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -734,16 +734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>環境a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>環境b</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -146,13 +146,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:D5" headerRowCount="1">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J11" headerRowCount="1">
+  <autoFilter ref="A1:J11"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="ファイル名"/>
     <tableColumn id="2" name="環境名"/>
     <tableColumn id="3" name="日付"/>
-    <tableColumn id="4" name="Completed"/>
+    <tableColumn id="4" name="Pass"/>
+    <tableColumn id="5" name="Fail"/>
+    <tableColumn id="6" name="Blocked"/>
+    <tableColumn id="7" name="Fixed"/>
+    <tableColumn id="8" name="Suspend"/>
+    <tableColumn id="9" name="N/A"/>
+    <tableColumn id="10" name="Completed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -656,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +688,36 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -694,16 +730,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>環境a</t>
+          <t>テスト項目1_環境a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -714,15 +768,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>環境a</t>
+          <t>テスト項目1_環境a</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,16 +806,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>環境a</t>
+          <t>テスト項目1_環境a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -754,15 +844,261 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>環境b</t>
+          <t>テスト項目1_環境a</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>テスト項目1_環境b</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>テスト項目1_環境b</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>テスト項目2_環境a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>テスト項目2_環境a</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>テスト項目2_環境a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sample1.xlsx</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>テスト項目2_環境b</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2025-01-29</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
     </row>

--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -146,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J11" headerRowCount="1">
-  <autoFilter ref="A1:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J13" headerRowCount="1">
+  <autoFilter ref="A1:J13"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ファイル名"/>
     <tableColumn id="2" name="環境名"/>
@@ -662,13 +662,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17.04" customWidth="1" style="2" min="1" max="1"/>
+    <col width="23.64" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.4" customWidth="1" style="2" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -757,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -967,13 +972,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -982,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
@@ -996,16 +1001,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>テスト項目2_環境a</t>
+          <t>テスト項目2_環境b</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1017,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1029,31 +1034,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sample1.xlsx</t>
+          <t>sample2.xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>テスト項目2_環境a</t>
+          <t>テスト項目_環境1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -1061,18 +1066,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sample1.xlsx</t>
+          <t>sample2.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>テスト項目2_環境b</t>
+          <t>テスト項目_環境2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1099,6 +1104,82 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sample3.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>テスト項目_a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sample3.xlsx</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>テスト項目_b</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
     </row>

--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -146,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J13" headerRowCount="1">
-  <autoFilter ref="A1:J13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J11" headerRowCount="1">
+  <autoFilter ref="A1:J11"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ファイル名"/>
     <tableColumn id="2" name="環境名"/>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1001,16 +1001,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>テスト項目2_環境b</t>
+          <t>テスト項目2_環境a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1034,30 +1034,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sample2.xlsx</t>
+          <t>sample1.xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>テスト項目_環境1</t>
+          <t>テスト項目2_環境a</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1066,18 +1066,18 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sample2.xlsx</t>
+          <t>sample1.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>テスト項目_環境2</t>
+          <t>テスト項目2_環境b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1104,82 +1104,6 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>sample3.xlsx</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>テスト項目_a</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>sample3.xlsx</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>テスト項目_b</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>3</v>
       </c>
     </row>

--- a/input_sample/progress.xlsx
+++ b/input_sample/progress.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,7 +59,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -69,6 +70,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -146,19 +148,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:J11" headerRowCount="1">
-  <autoFilter ref="A1:J11"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ファイル名"/>
-    <tableColumn id="2" name="環境名"/>
-    <tableColumn id="3" name="日付"/>
-    <tableColumn id="4" name="Pass"/>
-    <tableColumn id="5" name="Fail"/>
-    <tableColumn id="6" name="Blocked"/>
-    <tableColumn id="7" name="Fixed"/>
-    <tableColumn id="8" name="Suspend"/>
-    <tableColumn id="9" name="N/A"/>
-    <tableColumn id="10" name="Completed"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="A1:K40" headerRowCount="1">
+  <autoFilter ref="A1:K40"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="フォルダ"/>
+    <tableColumn id="2" name="ファイル名"/>
+    <tableColumn id="3" name="環境名"/>
+    <tableColumn id="4" name="日付"/>
+    <tableColumn id="5" name="Pass"/>
+    <tableColumn id="6" name="Fixed"/>
+    <tableColumn id="7" name="Fail"/>
+    <tableColumn id="8" name="Blocked"/>
+    <tableColumn id="9" name="Suspend"/>
+    <tableColumn id="10" name="N/A"/>
+    <tableColumn id="11" name="Completed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,81 +673,83 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.04" customWidth="1" style="2" min="1" max="1"/>
-    <col width="23.64" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.4" customWidth="1" style="2" min="3" max="3"/>
+    <col width="9.504" customWidth="1" style="2" min="1" max="1"/>
+    <col width="14.256" customWidth="1" style="2" min="2" max="2"/>
+    <col width="20.196" customWidth="1" style="2" min="3" max="3"/>
+    <col width="11.88" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>フォルダ</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>ファイル名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>環境名</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Suspend</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>テスト項目1_環境a</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="D2" s="4" t="n">
+        <v>45699</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -753,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -762,69 +767,67 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>テスト項目1_環境a</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" s="4" t="n">
+        <v>45700</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>テスト項目1_環境a</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
+        <v>45701</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -838,30 +841,29 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>テスト項目1_環境a</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+      <c r="D5" s="4" t="n">
+        <v>45703</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -876,31 +878,30 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>テスト項目1_環境b</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
+        <v>45699</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -914,31 +915,30 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>テスト項目1_環境b</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
+        <v>45700</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -952,69 +952,67 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>テスト項目2_環境a</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
+        <v>45700</v>
+      </c>
+      <c r="E8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>テスト項目2_環境a</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
+        <v>45719</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1022,43 +1020,42 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>テスト項目2_環境a</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
+      <c r="D10" s="4" t="n">
+        <v>45725</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -1066,31 +1063,30 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
         <is>
           <t>sample1.xlsx</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>テスト項目2_環境b</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
+        <v>45686</v>
+      </c>
+      <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1104,6 +1100,966 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" s="4" t="n">
+        <v>45686</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" s="4" t="n">
+        <v>45700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="4" t="n">
+        <v>45701</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="4" t="n">
+        <v>45702</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" s="4" t="n">
+        <v>45703</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="4" t="n">
+        <v>45704</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>45705</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" s="4" t="n">
+        <v>45706</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="4" t="n">
+        <v>45707</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" s="4" t="n">
+        <v>45708</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="4" t="n">
+        <v>45709</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="4" t="n">
+        <v>45710</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="4" t="n">
+        <v>45711</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="4" t="n">
+        <v>45712</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" s="4" t="n">
+        <v>45713</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="4" t="n">
+        <v>45714</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="4" t="n">
+        <v>45715</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="4" t="n">
+        <v>45716</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" s="4" t="n">
+        <v>45717</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" s="4" t="n">
+        <v>45718</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" s="4" t="n">
+        <v>45719</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" s="4" t="n">
+        <v>45720</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" s="4" t="n">
+        <v>45721</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" s="4" t="n">
+        <v>45722</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" s="4" t="n">
+        <v>45723</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" s="4" t="n">
+        <v>45724</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sample2.xlsx</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" s="4" t="n">
+        <v>45725</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sample3.xlsx</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" s="4" t="n">
+        <v>45719</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sample3.xlsx</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" s="4" t="n">
+        <v>45721</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3</v>
       </c>
     </row>
